--- a/Project_1_app.vwo.com/Rakesh-Vwo-login-Test Cases.xlsx
+++ b/Project_1_app.vwo.com/Rakesh-Vwo-login-Test Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakesh R\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakesh R\OneDrive\Desktop\THE TESTING ACADEMY COURSE\Manual - Projects\VWO Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABB11C1-45DC-4042-A89A-4034E0F08850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47BBC75-7AE8-4EDA-B1F1-C505CE2ABB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{600C2934-3582-4D43-A8EE-DFF4408C76BD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
   <si>
     <t>Scenario TID</t>
   </si>
@@ -469,13 +469,109 @@
   </si>
   <si>
     <t>Test logging in with a valid username and a password that contains international characters (e.g. accents, umlauts)</t>
+  </si>
+  <si>
+    <t>Test the login functionality on different web browsers (e.g. Chrome, Firefox, Safari, Internet Explorer) to ensure compatibility.</t>
+  </si>
+  <si>
+    <t>Test the login functionality on different mobile devices (e.g. iPhone, Android phone) to ensure it is responsive and mobile-friendly.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different keyboard layouts (e.g. QWERTY, AZERTY, QWERTZ) to ensure it works with different input methods.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different types of internet connections (e.g. WiFi, 4G, 3G, broadband) to ensure it works with different network speeds.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different screen sizes and resolutions to ensure it is properly displayed on different devices.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with the "caps lock" key turned on and off, and verify that it does not affect the ability to login.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with the "autocomplete" feature turned on and off, and verify that it does not affect the ability to login.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different languages selected, and verify that the login page is properly translated and displayed in the selected language.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with the "Accessibility mode" turned on, and verify that the login page is properly displayed and can be used by users with disabilities.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with the "Dark mode" turned on, and verify that the login page is properly displayed and can be used in dark environments.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with the "Private mode" turned on, and verify that the login page is properly displayed and the user's login information is not saved in the browser's cache.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but not associated with any existing user account, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a suspended or inactive user account, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been deleted or removed, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has exceeded its maximum allowed number of login attempts, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been locked due to security reasons, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been blocked or restricted due to a violation of the site's terms of service, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has not yet been verified or activated, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been marked as spam or suspicious, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been suspended or banned by the site's administrators, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been marked as inactive or dormant due to a lack of activity, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has expired or been terminated, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been transferred or migrated to a different site or service, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been merged or consolidated with another account, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been split or divided into multiple accounts, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been created using a different email address or username, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been created using a different password, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been created using a different login method (e.g. social media, third-party authentication), and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been created using a different login server or domain, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been created using a different login protocol or security mechanism, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has been created using a different login interface or theme, and verify that the user is unable to login with such combinations.</t>
+  </si>
+  <si>
+    <t>Test the login functionality with different combinations of username and password that are valid but associated with a user account that has different permissions or access rights, and verify that the user is able to login only with the correct combination of username and password that matches their account's permissions and access rights.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,8 +604,14 @@
       <name val="Lato"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,12 +626,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F8"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFF7F7F8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -552,11 +666,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -567,8 +696,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,7 +1021,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +1042,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1730,86 +1865,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D6143-F513-4409-9176-86B3FF5A01D2}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="114.6640625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="198.21875" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A43" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A44" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="A45" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="74.400000000000006" x14ac:dyDescent="0.45">
+      <c r="A46" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
